--- a/Excel/creating_fades_with_the_envelope_tool.xlsx
+++ b/Excel/creating_fades_with_the_envelope_tool.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Marathi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Creating Fades with the Envelope Tool - Audacity Manual</t>
   </si>
@@ -85,83 +79,75 @@
     <t>Click where you want to add additional control points as necessary to push out the envelope to the required shape.</t>
   </si>
   <si>
-    <t>लिफाफा साधनासह फिकट तयार करणे - ऑडसीटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>लिफाफा उपकरणासह फेड तयार करणे</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>लिफाफा साधनासह फिकट तयार करण्याचा मुख्य फायदा म्हणजे तो विना-विध्वंसक आहे. ऑडिओ डेटाचे नुकसान न करता लिफाफा कधीही बदलला किंवा काढला जाऊ शकतो.</t>
-  </si>
-  <si>
-    <t>कारण लिफाफा साधन घातांर्वक फेड वापरते, तंतोतंत फिकट आकार तयार करणे फारच सुलभतेने होऊ शकते, परंतु संयमाने जवळजवळ कोणत्याही प्रकारचे फीड आकार साध्य करता येते.</t>
-  </si>
-  <si>
-    <t>एक प्रभावी फिकट प्रदान करण्यासाठी फिकट आकार अचूक गुळगुळीत दिसण्याची आवश्यकता नाही. फिकट योग्य दिसण्यासाठी प्रयत्न करण्यासाठी अनावश्यक वेळ घालवण्यापूर्वी फिकट काय दिसते हे तपासा. आवाज जे दिसत आहे त्यापेक्षा कितीतरी अधिक महत्वाचे आहे.</t>
-  </si>
-  <si>
-    <t>लिफाफ्यात छोटे समायोजन करण्यासाठी अनुलंबरित्या ट्रॅक वाढविणे उपयुक्त ठरेल.</t>
-  </si>
-  <si>
-    <t>जेव्हा फिकटांशी संबंधित असते तेव्हा घातांकीय व लॉगरिथमिक या शब्दाचा वारंवार बदल होतो आणि ते गोंधळात टाकणारे असू शकते, परंतु खरोखर ही केवळ दृष्टीकोनाची बाब आहे. कधीतरी जास्त दराने काहीतरी वाढते तेव्हा घातांशीय वाढ होणे म्हणतात, जेव्हा घटत्या घटताना असे म्हणतात की जेव्हा घटते तेव्हा काही कमी होते. लॉगरिथमिक हे घातांकीय व्यतिरिक्त आहे, म्हणून जर कालांतराने काहीतरी वेगाने वाढत असेल तर दिलेल्या वाढीसाठी दिलेला कालावधी लघुगणितपणे छोटा केला जाईल. या लेखामध्ये एक्सपोन्शियल हा शब्द "घातांशी क्षय" च्या अर्थाने वापरला जातो, जिथे पातळी कधीही गाठल्याशिवाय लक्ष्य पातळीच्या जवळ आणि जवळ येते.</t>
-  </si>
-  <si>
-    <t>घाईघाईच्या वेळी, याचा अर्थ असा आहे की ऑडिओ पातळी शांत आणि शांत होईल परंतु कधीही पूर्णपणे शांत राहणार नाही. सराव मध्ये, हे नेहमीच घडते की घातांशी झालेली घसरण केवळ मौलिकतेच्या जवळ येईपर्यंत लॉगरिथमिक / एक्सपोनेन्शियल स्केलचे अनुसरण करेल आणि नंतर अगदी खालच्या पातळीवरुन खाली खाली शांतता खाली येऊ शकते, किंवा मार्गे लहान रेषेचा शांत करणे.</t>
+    <t>लिफाफा साधनासह फिकट तयार करणे - ओड्यासिटी माहिती पुस्तिका</t>
+  </si>
+  <si>
+    <t>लिफाफा उपकरणासह फिकट तयार करणे</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहिती पुस्तिका वरुन</t>
+  </si>
+  <si>
+    <t>येथे जा: सुचालन , शोध</t>
+  </si>
+  <si>
+    <t>लिफाफा साधनासह फिकट तयार करण्याचा मुख्य फायदा म्हणजे तो विना-विध्वंसक आहे . ध्वनी माहितीचे नुकसान न करता लिफाफा कधीही बदलला किंवा काढला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>कारण लिफाफा साधन घातांर्वक फिकट वापरते, तंतोतंत फिकट आकार तयार करणे फारच सुलभतेने होऊ शकते परंतु ओड्यासिटीने जवळजवळ कोणत्याही प्रकारचे फीड आकार साध्य करता येते.</t>
+  </si>
+  <si>
+    <t>एक प्रभावी फिकट प्रदान करण्यासाठी फिकट आकार अचूक गुळगुळीत दिसण्याची आवश्यकता नाही. फिकट योग्य दिसण्यासाठी प्रयत्न करण्यासाठी अनावश्यक वेळ घालवण्यापूर्वी फिकट काय दिसते हे तपासा . आवाज आत्तापर्यंत अधिक महत्त्वाचे तो कसा दिसतो ते जास्त आहे.</t>
+  </si>
+  <si>
+    <t>लिफाफ्यात छोटे समायोजन करण्यासाठी अनुलंबरित्या गीतपट्टा वाढविणे उपयुक्त ठरेल .</t>
   </si>
   <si>
     <t>लिफाफा साधनासह फिकट रेखांकन करण्यासाठी टिपा:</t>
   </si>
   <si>
-    <t>या उदाहरणात आम्ही एक फीड तयार करू जी संपूर्ण व्हॉल्यूमपासून सुरू होते, नंतर हळूहळू फिकट होण्यास सुरवात होते, नंतर हळूहळू शांततेसाठी अधिक वेगवान, येथे स्पष्ट केल्यानुसारः</t>
-  </si>
-  <si>
-    <t>ज्या ठिकाणी फेड पूर्ण परिमाणातून सुरू होते त्या स्थानावर नियंत्रण बिंदू सेट करुन फेडला प्रारंभ करा:</t>
-  </si>
-  <si>
-    <t>फेडच्या "प्रारंभ स्थिती" वर लिफाफा साधनासह वेव्हफॉर्मवर क्लिक करा.</t>
-  </si>
-  <si>
-    <t>पूर्ण खंड प्राप्त करण्यासाठी नियंत्रण बिंदू अनुलंब ट्रॅकच्या जवळच्या काठावर ड्रॅग करा.</t>
-  </si>
-  <si>
-    <t>लक्षात ठेवा आपण ट्रॅकच्या काठाच्या पलीकडे बिंदू ड्रॅग केल्यास नियंत्रण बिंदू काढला जाईल.</t>
-  </si>
-  <si>
-    <t>एखादा नियंत्रण बिंदू सेट करा जेथे फेड शांत होईल.</t>
-  </si>
-  <si>
-    <t>फेडच्या "अंतिम स्थिती" वर लिफाफा साधनासह वेव्हफॉर्मवर क्लिक करा.</t>
-  </si>
-  <si>
-    <t>ट्रॅकच्या अनुलंब मध्यभागी कडे नियंत्रण बिंदू वर किंवा खाली ड्रॅग करा.</t>
+    <t>या उदाहरणात आम्ही एक फिकट तयार करू जी संपूर्ण आवाजपासून सुरू होते, नंतर हळू हळू, नंतर हळू हळू अधिक वेगवान, शांत होण्यास सुरवात होते, जसे की येथे स्पष्ट केले आहे:</t>
+  </si>
+  <si>
+    <t>ज्या ठिकाणी फिकट पूर्ण परिमाणातून सुरू होते त्या स्थानावर नियंत्रण बिंदू निवड करुन फिकटला प्रारंभ करा:</t>
+  </si>
+  <si>
+    <t>फिकटच्या "प्रारंभ स्थिती" वर लिफाफा साधनासह तरंगरूपवर क्लिक करा.</t>
+  </si>
+  <si>
+    <t>पूर्ण खंड प्राप्त करण्यासाठी नियंत्रण बिंदू अनुलंब गीतपट्टाच्या जवळच्या काठावर ओढा.</t>
+  </si>
+  <si>
+    <t>लक्षात ठेवा आपण गीतपट्टाच्या काठाच्या पलीकडे बिंदू ड्रॅग केल्यास नियंत्रण बिंदू काढला जाईल.</t>
+  </si>
+  <si>
+    <t>एखादा नियंत्रण बिंदू निवड करा जेथे फिकट शांत होईल .</t>
+  </si>
+  <si>
+    <t>फिकटच्या "अंतिम स्थिती" वर लिफाफा साधनासह तरंगरूपवर क्लिक करा.</t>
+  </si>
+  <si>
+    <t>गीतपट्टाच्या अनुलंब मध्यभागी कडे नियंत्रण बिंदू वर किंवा खाली ओढा.</t>
   </si>
   <si>
     <t>लक्षात घ्या की फॅडच्या मोठ्या भागासाठी फॅड जवळजवळ मूक असेल.</t>
   </si>
   <si>
-    <t>लिफाफा आवश्यक आकारात बाहेर टाकण्यासाठी आवश्यकतेनुसार आपण अतिरिक्त नियंत्रण बिंदू जोडायचा तेथे क्लिक करा.</t>
+    <t>लिफाफा आवश्यक आकारात बाहेर टाकण्यासाठी आवश्यकतेनुसार आपण अतिरिक्त नियंत्रण बिंदू जोडायचा तेथे क्लिक करा .</t>
+  </si>
+  <si>
+    <t>जेव्हा फिकटांशी संबंधित असते, तेव्हा घातांकीय व लॉगरिथम या शब्दाचा वारंवार बदल होत असतो, जो गोंधळात टाकू शकतो, परंतु खरोखर ही केवळ दृष्टीकोनाची बाब आहे. कधीतरी जास्त दराने काहीतरी वाढते तेव्हा घातांकीय वाढ होणे म्हटले जाते, जेव्हा घटत्या कमी झालेल्या दराने काहीतरी घटते तेव्हा घातांशी क्षय होणे म्हणतात. लॉगरिथमिक हे घातांकीय व्यतिरिक्त आहे , म्हणून जर काही कालांतराने वेगाने वाढत असेल तर दिलेल्या वाढीसाठी दिलेला कालावधी लघुगणितपणे छोटा केला जाईल. या लेखामध्ये घातांकीय पद"घातांशी क्षय" च्या अर्थाने वापरले जाते, जेथे पातळी कधीही गाठल्याशिवाय लक्ष्य पातळीच्या जवळ आणि जवळ येते.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> घाईघाईच्या वेळी, याचा अर्थ असा आहे की ध्वनी पातळी शांत आणि शांत होईल परंतु कधीही पूर्णपणे शांत राहणार नाही. सराव, तो एक नेहमीपेक्षा आहे खरं सांगतो तो शांतता अगदी जवळ आहे होईपर्यंत फिकट बाहेर फक्त प्रत्यक्षात लॉगरिथम / वाढीव प्रमाणात साधेल आणि नंतर एकतर शांतता अगदी कमी पातळी थेट ड्रॉप करून शांत जाण्यास सांगितले जाईल, किंवा एक द्वारे शांत रेषात्मक शांतता.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,27 +163,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -206,8 +177,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,6 +186,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -293,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -327,6 +304,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,251 +480,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.85546875" customWidth="1"/>
+    <col min="2" max="2" width="94.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
